--- a/ExcelFiles/pdfData.xlsx
+++ b/ExcelFiles/pdfData.xlsx
@@ -1,51 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\ByteIQ Projects\Pogli-data-collection\ExcelFiles\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A700BA6E-4BB2-4C5E-B851-CC6F06923717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Company Details" sheetId="1" r:id="rId1"/>
-    <sheet name="Company ESG" sheetId="2" r:id="rId2"/>
-    <sheet name="Company Brand" sheetId="3" r:id="rId3"/>
-    <sheet name="Company Products" sheetId="4" r:id="rId4"/>
-    <sheet name="Company Customers" sheetId="5" r:id="rId5"/>
+    <sheet name="Company Details" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Company ESG" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Company Products" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Company Customers" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -60,43 +49,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -384,49 +423,497 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AG3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="A1:AG10"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
-      <c r="AD1" s="1"/>
-      <c r="AE1" s="1"/>
-      <c r="AF1" s="1"/>
-      <c r="AG1" s="1"/>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Company Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Industry Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>cin</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>registered_office_address</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>international_operating_centers</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>national_operating_centers</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>corporate_address</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>stock_exchange_listed</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>paid_up_share_capital</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>assurance_provider</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>assurance_type</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>csr_applicable</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>turnover</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>net_worth</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>phone_number</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>email_id</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>founder_name</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>founder_designation</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>foundation_date</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>revenue</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>number_of_workers</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>number_of_employees</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>industry_domain</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>is_listed_on_bse</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>company_type</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>complaints_filed</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>complaints_pending</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>days_of_account_payable</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>website_link</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>country_name</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>products</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>customers</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>operating_sites</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>KJGVGBNLM&lt;JK"{</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>L74110MH2008PLC179120</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>202, Pressman House, 70 A, Nehru Road, Near Santa Cruz Airport Terminal, Vile Parle (East), Mumbai - 400 099.</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>['Mumbai', 'New Delhi', 'Chennai', 'Bengaluru', 'Kolkata', 'Nagpur', 'Pune', 'Nashik']</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>202, Pressman House, 70 A, Nehru Road, Near Santa Cruz Airport, Vile Parle (East), Mumbai - 400 099.</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>10,69,00,000</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Sarda Soni Associates LLP</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Statutory Auditors</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>39,593 lakh</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>18,891.75 lakh</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>022 6199 2400</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>info@signpostindia.com</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Shripad Ashtekar</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Managing Director</t>
+        </is>
+      </c>
+      <c r="S2" t="n">
+        <v>2008</v>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>38,744.54 Lakh</t>
+        </is>
+      </c>
+      <c r="U2" t="n">
+        <v>244</v>
+      </c>
+      <c r="V2" t="n">
+        <v>519</v>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>Advertising</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>Public</t>
+        </is>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>166.9</v>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>www.signpostindia.com</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>['Billboards: Conventional, Backlit, and Digital', 'Transit: Skywalks, Bus Panels, Airports, Metro Stations, Bus Queue Shelters, Smart Mobile Vans', 'Innovative Solutions: Kiosks, Traffic Booths, and Public Electric Bicycle Sharing']</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>['Consumer Goods &amp; Services', 'BFSI', 'Lifestyle', 'Real Estate &amp; Construction', 'Media &amp; Entertainment', 'Education', 'Pharma', 'Telecom', 'Automobiles', 'Hospitality', 'Government Ministries']</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>['Mumbai', 'New Delhi', 'Chennai', 'Bengaluru', 'Kolkata', 'Nagpur', 'Pune', 'Nashik']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Signpost India</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>L74110MH2008PLC179120</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>202, Pressman House, 70 A, Nehru Road, Near Santa Cruz Airport, Vile Parle (East), Mumbai - 400 099.</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>['Mumbai', 'New Delhi', 'Chennai', 'Bengaluru', 'Kolkata', 'Nagpur', 'Pune', 'Nashik']</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>202, Pressman House, 70 A, Nehru Road, Near Santa Cruz Airport, Vile Parle (East), Mumbai - 400 099.</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>10,69,00,000</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Sarda Soni Associates LLP</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Statutory Auditors</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>39,593 lakh</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>18,891.75 lakh</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>022 6199 2400</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>info@signpostindia.com</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Shripad Ashtekar</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Managing Director</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>38,744.54 Lakh</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>519</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>Advertising</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>Public</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>166.90</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>www.signpostindia.com</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>['Billboards', 'Transit', 'Innovative Solutions']</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>['Consumer Goods &amp; Services', 'BFSI', 'Lifestyle', 'Real Estate &amp; Construction', 'Media &amp; Entertainment', 'Education', 'Pharma', 'Telecom', 'Automobiles', 'Hospitality', 'Government Ministries']</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>['Mumbai', 'New Delhi', 'Chennai', 'Bengaluru', 'Kolkata', 'Nagpur', 'Pune', 'Nashik']</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -434,25 +921,2342 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I7"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Company Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Industry Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>year</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>esg_type</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>esg_category</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>values_in_percentage</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>yes_or_no</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>unit</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>KJGVGBNLM&lt;JK"{</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Environmental</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Energy Consumption</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>1382383.42</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Megajoules</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>KJGVGBNLM&lt;JK"{</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Environmental</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Energy Consumption</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>1001418.64</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Megajoules</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>KJGVGBNLM&lt;JK"{</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Environmental</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Water Withdrawal</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>2418</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Kilolitres</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>KJGVGBNLM&lt;JK"{</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Environmental</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Water Withdrawal</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>351</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Kilolitres</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>KJGVGBNLM&lt;JK"{</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Environmental</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Water Consumption</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>2176.2</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Kilolitres</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>KJGVGBNLM&lt;JK"{</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Environmental</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Water Consumption</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>315.9</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Kilolitres</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>KJGVGBNLM&lt;JK"{</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Environmental</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Water Discharge</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>241.8</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Kilolitres</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>KJGVGBNLM&lt;JK"{</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Environmental</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Water Discharge</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Kilolitres</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>KJGVGBNLM&lt;JK"{</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Environmental</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Greenhouse Gas Emissions (Scope 1)</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>62.33</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Metric tonnes of CO2 equivalent</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>KJGVGBNLM&lt;JK"{</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Environmental</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Greenhouse Gas Emissions (Scope 1)</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>60.35</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Metric tonnes of CO2 equivalent</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>KJGVGBNLM&lt;JK"{</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Environmental</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Greenhouse Gas Emissions (Scope 2)</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>145.39</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Metric tonnes of CO2 equivalent</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>KJGVGBNLM&lt;JK"{</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Environmental</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Greenhouse Gas Emissions (Scope 2)</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>108.62</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Metric tonnes of CO2 equivalent</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>KJGVGBNLM&lt;JK"{</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Employee Count (Permanent)</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>KJGVGBNLM&lt;JK"{</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Employee Count (Permanent)</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>KJGVGBNLM&lt;JK"{</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Turnover Rate (Permanent Employees - Male)</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>30.64</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>KJGVGBNLM&lt;JK"{</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Turnover Rate (Permanent Employees - Male)</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>29.18</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>KJGVGBNLM&lt;JK"{</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Turnover Rate (Permanent Employees - Female)</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>50.98</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>KJGVGBNLM&lt;JK"{</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Turnover Rate (Permanent Employees - Female)</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>49.12</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>KJGVGBNLM&lt;JK"{</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Women on Board</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>2</v>
+      </c>
+      <c r="G20" t="n">
+        <v>28.57</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>KJGVGBNLM&lt;JK"{</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Women in Key Management</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" t="n">
+        <v>50</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>KJGVGBNLM&lt;JK"{</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Complaints on Conflict of Interest (Directors)</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>KJGVGBNLM&lt;JK"{</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Complaints on Conflict of Interest (Directors)</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>KJGVGBNLM&lt;JK"{</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Complaints Received (Customers)</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>KJGVGBNLM&lt;JK"{</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Complaints Received (Customers)</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>KJGVGBNLM&lt;JK"{</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Board Approved Policies</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>9</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>KJGVGBNLM&lt;JK"{</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Policies Translated into Procedures</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>KJGVGBNLM&lt;JK"{</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Policies Extended to Value Chain Partners</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>KJGVGBNLM&lt;JK"{</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Independent Assessment of Policies</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>KJGVGBNLM&lt;JK"{</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Days of Accounts Payables</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>166.9</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Days</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>KJGVGBNLM&lt;JK"{</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Days of Accounts Payables</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>181.23</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Days</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>KJGVGBNLM&lt;JK"{</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Purchases from Trading Houses as % of Total Purchases</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>KJGVGBNLM&lt;JK"{</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Purchases from Trading Houses as % of Total Purchases</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>KJGVGBNLM&lt;JK"{</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Share of RPTs in Purchases</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>KJGVGBNLM&lt;JK"{</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Share of RPTs in Purchases</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>KJGVGBNLM&lt;JK"{</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Financial</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Turnover</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>3874454089</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>INR</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>KJGVGBNLM&lt;JK"{</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Financial</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Net Worth</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>1889174570</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>INR</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Signpost India</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Environmental</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Energy Consumption</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>1382383.42</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Megajoules</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Signpost India</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Environmental</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Energy Consumption</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>1001418.64</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Megajoules</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Signpost India</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Environmental</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Water Withdrawal</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>2418</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Kilolitres</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Signpost India</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Environmental</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Water Withdrawal</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>351</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Kilolitres</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Signpost India</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Environmental</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Water Consumption</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>2176.2</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Kilolitres</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Signpost India</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Environmental</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Water Consumption</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>315.9</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Kilolitres</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Signpost India</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Environmental</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Water Discharge</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>241.8</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Kilolitres</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Signpost India</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Environmental</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Water Discharge</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Kilolitres</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Signpost India</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Environmental</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Greenhouse Gas Emissions (Scope 1)</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>62.33</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Metric tonnes of CO2 equivalent</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Signpost India</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Environmental</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Greenhouse Gas Emissions (Scope 1)</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>60.35</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Metric tonnes of CO2 equivalent</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Signpost India</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Environmental</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Greenhouse Gas Emissions (Scope 2)</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>145.39</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Metric tonnes of CO2 equivalent</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Signpost India</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Environmental</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Greenhouse Gas Emissions (Scope 2)</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>108.62</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Metric tonnes of CO2 equivalent</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Signpost India</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Employee Count (Permanent)</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Signpost India</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Employee Count (Permanent)</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Signpost India</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Employee Turnover Rate (Permanent)</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>40.81</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Signpost India</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Employee Turnover Rate (Permanent)</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>39.15</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Signpost India</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Women on Board</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>2</v>
+      </c>
+      <c r="G54" t="n">
+        <v>28.57</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Signpost India</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Women in Key Management</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>1</v>
+      </c>
+      <c r="G55" t="n">
+        <v>50</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Signpost India</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Complaints on Conflict of Interest (Directors)</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Signpost India</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Complaints on Conflict of Interest (Directors)</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Signpost India</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Complaints on Conflict of Interest (KMPs)</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Signpost India</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Complaints on Conflict of Interest (KMPs)</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Signpost India</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>CSR Applicable</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Signpost India</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Turnover</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>3874454089</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>INR</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Signpost India</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Net Worth</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>1889174570</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>INR</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Signpost India</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Policies Covering all Principles</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Signpost India</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Board Approval of Policies</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Signpost India</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Policies Extended to Value Chain Partners</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Signpost India</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Independent Assessment of Policies</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Signpost India</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Days of Accounts Payables</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>166.9</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>Days</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Signpost India</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Days of Accounts Payables</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>181.23</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>Days</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Signpost India</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Concentration of Purchases from Trading Houses</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Signpost India</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Concentration of Purchases from Trading Houses</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Signpost India</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Share of RPTs in Purchases</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Signpost India</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Share of RPTs in Purchases</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -460,20 +3264,172 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D6"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Company Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Industry Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Products</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>KJGVGBNLM&lt;JK"{</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Billboards: Conventional, Backlit, and Digital</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Billboards are large outdoor advertising structures.  Conventional billboards use static printed images. Backlit billboards are illuminated from behind for better visibility, especially at night. Digital billboards use electronic displays for dynamic, changeable advertisements.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>KJGVGBNLM&lt;JK"{</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Transit: Skywalks, Bus Panels, Airports, Metro Stations, Bus Queue Shelters, Smart Mobile Vans</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Transit advertising encompasses various public spaces, including skywalks, bus panels, airports, metro stations, bus queue shelters, and smart mobile vans, offering diverse placement options for advertisements.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>KJGVGBNLM&lt;JK"{</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Innovative Solutions: Kiosks, Traffic Booths, and Public Electric Bicycle Sharing</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Innovative solutions encompassing self-service kiosks, traffic booths, and a public electric bicycle sharing program, designed to improve efficiency and accessibility.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Signpost India</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Billboards</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Billboards are large outdoor advertising structures, typically found in high-traffic areas. They display visual advertisements to a wide audience, using various formats like static images or digital screens.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Signpost India</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Transit</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Transit refers to the movement of people or goods from one place to another, encompassing various modes of transportation like road, rail, air, or sea.  It involves the entire journey, including scheduling and logistics.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Signpost India</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Innovative Solutions</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>The provided text only contains the phrase "Innovative Solutions," indicating a focus on novel approaches and problem-solving, without specifying particular products or services.</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -481,48 +3437,597 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:I1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I114"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Company Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Industry Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Customer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Foundation Year</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Annual Revenue</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Quarterly Revenue</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Sector</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>KJGVGBNLM&lt;JK"{</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Consumer Goods &amp; Services</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Consumer Goods &amp; Services</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>KJGVGBNLM&lt;JK"{</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>BFSI</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>BFSI (Banking, Financial Services, and Insurance)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>KJGVGBNLM&lt;JK"{</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Lifestyle</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>KJGVGBNLM&lt;JK"{</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Real Estate &amp; Construction</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Real Estate &amp; Construction</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>KJGVGBNLM&lt;JK"{</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Media &amp; Entertainment</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Media &amp; Entertainment</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>KJGVGBNLM&lt;JK"{</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>KJGVGBNLM&lt;JK"{</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Pharma</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Pharmaceuticals</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>KJGVGBNLM&lt;JK"{</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Telecom</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Telecommunications</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>KJGVGBNLM&lt;JK"{</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Automobiles</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Automotive</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>KJGVGBNLM&lt;JK"{</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Hospitality</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Hospitality</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>KJGVGBNLM&lt;JK"{</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Government Ministries</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Government</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Signpost India</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Consumer Goods &amp; Services</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Consumer Goods &amp; Services</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Signpost India</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>BFSI</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>BFSI (Banking, Financial Services, and Insurance)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Signpost India</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Lifestyle</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Signpost India</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Real Estate &amp; Construction</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Real Estate &amp; Construction</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Signpost India</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Media &amp; Entertainment</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Media &amp; Entertainment</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Signpost India</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Signpost India</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Pharma</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Pharmaceuticals</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Signpost India</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Telecom</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Telecommunications</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Signpost India</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Automobiles</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Automotive</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Signpost India</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Hospitality</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Hospitality</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Signpost India</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Electrodes &amp; Refractories</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Government Ministries</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Government</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
